--- a/data_year/zb/国民经济核算/投入产出基本流量表/最终使用部分/农村居民消费.xlsx
+++ b/data_year/zb/国民经济核算/投入产出基本流量表/最终使用部分/农村居民消费.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,463 +528,276 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4968866.9149888</v>
+        <v>6905167.05494857</v>
       </c>
       <c r="C2" t="n">
-        <v>7093228.36199779</v>
+        <v>34556283.5412952</v>
       </c>
       <c r="D2" t="n">
-        <v>64185460.959079</v>
+        <v>57424947.6164632</v>
       </c>
       <c r="E2" t="n">
-        <v>246034170</v>
+        <v>325752111.37</v>
       </c>
       <c r="F2" t="n">
-        <v>7748718.44814823</v>
+        <v>7851246.14791967</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>14860589.4523759</v>
+        <v>29591979.6274244</v>
       </c>
       <c r="I2" t="n">
-        <v>11563064.74</v>
+        <v>38590033.9138582</v>
       </c>
       <c r="J2" t="n">
-        <v>14883423.0042316</v>
+        <v>19804819.4490945</v>
       </c>
       <c r="K2" t="n">
-        <v>477818.82652206</v>
+        <v>1265143.65694542</v>
       </c>
       <c r="L2" t="n">
-        <v>2131846.77987476</v>
+        <v>7619661.59081842</v>
       </c>
       <c r="M2" t="n">
-        <v>12596968.9521987</v>
+        <v>17804619.6763851</v>
       </c>
       <c r="N2" t="n">
-        <v>6563143.68228735</v>
+        <v>15042863.3549282</v>
       </c>
       <c r="O2" t="n">
-        <v>792332.583024223</v>
+        <v>839009.126142842</v>
       </c>
       <c r="P2" t="n">
-        <v>1705711.928124</v>
+        <v>787098.537314422</v>
       </c>
       <c r="Q2" t="n">
-        <v>5712306.02413672</v>
+        <v>10004163.5472791</v>
       </c>
       <c r="R2" t="n">
-        <v>1971900.96332046</v>
+        <v>293452.056780284</v>
       </c>
       <c r="S2" t="n">
-        <v>40425924.3988601</v>
+        <v>77371622.47048409</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2463038.63242766</v>
+        <v>6847689.73021963</v>
       </c>
       <c r="C3" t="n">
-        <v>16677625.2937021</v>
+        <v>56648287.2638858</v>
       </c>
       <c r="D3" t="n">
-        <v>49328791.5725105</v>
+        <v>80368698.4715759</v>
       </c>
       <c r="E3" t="n">
-        <v>162717000</v>
+        <v>452228451.56</v>
       </c>
       <c r="F3" t="n">
-        <v>4982991.34281098</v>
+        <v>10841058.4891874</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>22260259.5749772</v>
+        <v>47127056.6894162</v>
       </c>
       <c r="I3" t="n">
-        <v>14151138.0825331</v>
+        <v>46133906.5418365</v>
       </c>
       <c r="J3" t="n">
-        <v>6166088.86372333</v>
+        <v>26404380.6630502</v>
       </c>
       <c r="K3" t="n">
-        <v>415227.229217308</v>
+        <v>2721232.03289078</v>
       </c>
       <c r="L3" t="n">
-        <v>2290655.2559682</v>
+        <v>7214289.82896097</v>
       </c>
       <c r="M3" t="n">
-        <v>6498773.22978009</v>
+        <v>22379729.7561671</v>
       </c>
       <c r="N3" t="n">
-        <v>4683771.16932833</v>
+        <v>23879560.4054797</v>
       </c>
       <c r="O3" t="n">
-        <v>778639.832236615</v>
+        <v>992965.9976723969</v>
       </c>
       <c r="P3" t="n">
-        <v>757054.083014139</v>
+        <v>876818.786699993</v>
       </c>
       <c r="Q3" t="n">
-        <v>5371883.13256443</v>
+        <v>14231498.7684422</v>
       </c>
       <c r="R3" t="n">
-        <v>995231.803313909</v>
+        <v>1493455.37041276</v>
       </c>
       <c r="S3" t="n">
-        <v>24895830.9018921</v>
+        <v>104067822.75911</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2986255.6745253</v>
+        <v>17980595.5085509</v>
       </c>
       <c r="C4" t="n">
-        <v>21482251.0326242</v>
+        <v>70459680.6893947</v>
       </c>
       <c r="D4" t="n">
-        <v>49565041.7202434</v>
+        <v>63351858.2394243</v>
       </c>
       <c r="E4" t="n">
-        <v>192281799.65</v>
+        <v>591432851.313041</v>
       </c>
       <c r="F4" t="n">
-        <v>5864261.25703246</v>
+        <v>19610177.9856206</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>22729305.8295358</v>
+        <v>93795747.6143457</v>
       </c>
       <c r="I4" t="n">
-        <v>16078867.959433</v>
+        <v>46462590.0460146</v>
       </c>
       <c r="J4" t="n">
-        <v>11299741.829391</v>
+        <v>42864709.2645384</v>
       </c>
       <c r="K4" t="n">
-        <v>922789.422954749</v>
+        <v>10151697.0022656</v>
       </c>
       <c r="L4" t="n">
-        <v>2675758.74147815</v>
+        <v>12483301.426838</v>
       </c>
       <c r="M4" t="n">
-        <v>8082866.59973508</v>
+        <v>32677738.9953321</v>
       </c>
       <c r="N4" t="n">
-        <v>8698598.064585291</v>
+        <v>29092336.7411581</v>
       </c>
       <c r="O4" t="n">
-        <v>610128.791399146</v>
+        <v>1704464.86975962</v>
       </c>
       <c r="P4" t="n">
-        <v>1047235.05655393</v>
+        <v>1098185.87609708</v>
       </c>
       <c r="Q4" t="n">
-        <v>5763400</v>
+        <v>22504991.796272</v>
       </c>
       <c r="R4" t="n">
-        <v>1245151.39651582</v>
+        <v>2163696.73742888</v>
       </c>
       <c r="S4" t="n">
-        <v>33230146.2750961</v>
+        <v>125031078.52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3582899.56852341</v>
+        <v>1022482.01723457</v>
       </c>
       <c r="C5" t="n">
-        <v>26572033.3452646</v>
+        <v>109674596.853075</v>
       </c>
       <c r="D5" t="n">
-        <v>51593464.1814479</v>
+        <v>86826037.56695829</v>
       </c>
       <c r="E5" t="n">
-        <v>243172440.41</v>
-      </c>
-      <c r="F5" t="n">
-        <v>6135329.72910943</v>
-      </c>
+        <v>647387865.680441</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="n">
-        <v>23599829.6921232</v>
-      </c>
-      <c r="I5" t="n">
-        <v>33575643.3579794</v>
-      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>14357404.3521302</v>
+        <v>34211645.1104738</v>
       </c>
       <c r="K5" t="n">
-        <v>1370560.33301704</v>
+        <v>18750287.9095808</v>
       </c>
       <c r="L5" t="n">
-        <v>5590814.63704616</v>
+        <v>8114404.50432964</v>
       </c>
       <c r="M5" t="n">
-        <v>12015253.8791819</v>
-      </c>
-      <c r="N5" t="n">
-        <v>11611531.9734021</v>
-      </c>
+        <v>22072083.1962839</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>873463.11209023</v>
+        <v>809172.271890281</v>
       </c>
       <c r="P5" t="n">
-        <v>704375.664574074</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>7070858.25838468</v>
-      </c>
+        <v>719856.62654848</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="n">
-        <v>502316.044210614</v>
+        <v>1260281.25224654</v>
       </c>
       <c r="S5" t="n">
-        <v>44016662.2803272</v>
+        <v>164402927.265019</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6905167.05494857</v>
+        <v>1188015.95895082</v>
       </c>
       <c r="C6" t="n">
-        <v>34556283.5412952</v>
+        <v>155878057.103352</v>
       </c>
       <c r="D6" t="n">
-        <v>57424947.6164632</v>
+        <v>109745451.401855</v>
       </c>
       <c r="E6" t="n">
-        <v>325752111.37</v>
-      </c>
-      <c r="F6" t="n">
-        <v>7851246.14791967</v>
-      </c>
+        <v>816642871.617192</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="n">
-        <v>29591979.6274244</v>
-      </c>
-      <c r="I6" t="n">
-        <v>38590033.9138582</v>
-      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>19804819.4490945</v>
+        <v>54242995.1094221</v>
       </c>
       <c r="K6" t="n">
-        <v>1265143.65694542</v>
+        <v>26404008.7322014</v>
       </c>
       <c r="L6" t="n">
-        <v>7619661.59081842</v>
+        <v>16110906.1592875</v>
       </c>
       <c r="M6" t="n">
-        <v>17804619.6763851</v>
-      </c>
-      <c r="N6" t="n">
-        <v>15042863.3549282</v>
-      </c>
+        <v>23013748.4379359</v>
+      </c>
+      <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
-        <v>839009.126142842</v>
+        <v>753293.483239878</v>
       </c>
       <c r="P6" t="n">
-        <v>787098.537314422</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>10004163.5472791</v>
-      </c>
+        <v>665462.948125652</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>293452.056780284</v>
+        <v>1560823.70183441</v>
       </c>
       <c r="S6" t="n">
-        <v>77371622.47048409</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>6847689.73021963</v>
-      </c>
-      <c r="C7" t="n">
-        <v>56648287.2638858</v>
-      </c>
-      <c r="D7" t="n">
-        <v>80368698.4715759</v>
-      </c>
-      <c r="E7" t="n">
-        <v>452228451.56</v>
-      </c>
-      <c r="F7" t="n">
-        <v>10841058.4891874</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="n">
-        <v>47127056.6894162</v>
-      </c>
-      <c r="I7" t="n">
-        <v>46133906.5418365</v>
-      </c>
-      <c r="J7" t="n">
-        <v>26404380.6630502</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2721232.03289078</v>
-      </c>
-      <c r="L7" t="n">
-        <v>7214289.82896097</v>
-      </c>
-      <c r="M7" t="n">
-        <v>22379729.7561671</v>
-      </c>
-      <c r="N7" t="n">
-        <v>23879560.4054797</v>
-      </c>
-      <c r="O7" t="n">
-        <v>992965.9976723969</v>
-      </c>
-      <c r="P7" t="n">
-        <v>876818.786699993</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>14231498.7684422</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1493455.37041276</v>
-      </c>
-      <c r="S7" t="n">
-        <v>104067822.75911</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>17980595.5085509</v>
-      </c>
-      <c r="C8" t="n">
-        <v>70459680.6893947</v>
-      </c>
-      <c r="D8" t="n">
-        <v>63351858.2394243</v>
-      </c>
-      <c r="E8" t="n">
-        <v>591432851.313041</v>
-      </c>
-      <c r="F8" t="n">
-        <v>19610177.9856206</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="n">
-        <v>93795747.6143457</v>
-      </c>
-      <c r="I8" t="n">
-        <v>46462590.0460146</v>
-      </c>
-      <c r="J8" t="n">
-        <v>42864709.2645384</v>
-      </c>
-      <c r="K8" t="n">
-        <v>10151697.0022656</v>
-      </c>
-      <c r="L8" t="n">
-        <v>12483301.426838</v>
-      </c>
-      <c r="M8" t="n">
-        <v>32677738.9953321</v>
-      </c>
-      <c r="N8" t="n">
-        <v>29092336.7411581</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1704464.86975962</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1098185.87609708</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>22504991.796272</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2163696.73742888</v>
-      </c>
-      <c r="S8" t="n">
-        <v>125031078.52</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1022482.01723457</v>
-      </c>
-      <c r="C9" t="n">
-        <v>109674596.853075</v>
-      </c>
-      <c r="D9" t="n">
-        <v>86826037.56695829</v>
-      </c>
-      <c r="E9" t="n">
-        <v>647387865.680441</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>34211645.1104738</v>
-      </c>
-      <c r="K9" t="n">
-        <v>18750287.9095808</v>
-      </c>
-      <c r="L9" t="n">
-        <v>8114404.50432964</v>
-      </c>
-      <c r="M9" t="n">
-        <v>22072083.1962839</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="n">
-        <v>809172.271890281</v>
-      </c>
-      <c r="P9" t="n">
-        <v>719856.62654848</v>
-      </c>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="n">
-        <v>1260281.25224654</v>
-      </c>
-      <c r="S9" t="n">
-        <v>164402927.265019</v>
+        <v>156188434.737491</v>
       </c>
     </row>
   </sheetData>
